--- a/data/outputs/OR/55.xlsx
+++ b/data/outputs/OR/55.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ43"/>
+  <dimension ref="A1:BR43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -911,6 +916,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>2533951</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1341,6 +1352,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>2882514</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1552,6 +1568,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1755,6 +1772,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>2964822</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1984,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2177,6 +2200,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2388,6 +2412,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2591,6 +2616,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2806,6 +2832,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3017,6 +3044,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3248,6 +3276,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3459,6 +3488,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3670,6 +3700,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3889,6 +3920,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4112,6 +4144,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4343,6 +4376,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4558,6 +4592,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4769,6 +4804,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4980,6 +5016,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5191,6 +5228,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5402,6 +5440,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5617,6 +5656,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5820,6 +5860,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5899,7 +5940,7 @@
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr">
         <is>
-          <t> [NCN 2011/01/B/ST1/01521]</t>
+          <t>[NCN 2011/01/B/ST1/01521]</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6031,6 +6072,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6246,6 +6288,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6457,6 +6500,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6660,6 +6704,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>3704930</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6879,6 +6928,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7094,6 +7144,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7301,6 +7352,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7520,6 +7572,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7731,6 +7784,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>2757546</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7962,6 +8020,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8161,6 +8220,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8396,6 +8456,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8631,6 +8692,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8826,6 +8888,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9037,6 +9100,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>1276913</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9248,6 +9316,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9451,6 +9520,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9646,6 +9716,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
